--- a/config/excel/skill.xlsx
+++ b/config/excel/skill.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -153,19 +153,16 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
-    <t>int</t>
+    <t>int32</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> []int</t>
-  </si>
-  <si>
-    <t>[]int</t>
+    <t>float32</t>
+  </si>
+  <si>
+    <t>[]int32</t>
   </si>
   <si>
     <t>导出字段默认值</t>
@@ -683,9 +680,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -765,7 +762,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -793,10 +790,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1052,9 +1049,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1342,7 +1339,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1370,10 +1367,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1862,7 +1859,7 @@
         <v>41</v>
       </c>
       <c r="O6" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s" s="9">
         <v>41</v>
@@ -1874,11 +1871,11 @@
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" t="s" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" t="s" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1909,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1">
@@ -1919,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s" s="15">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s" s="16">
         <v>49</v>
-      </c>
-      <c r="E8" t="s" s="16">
-        <v>50</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -1946,13 +1943,13 @@
         <v>1</v>
       </c>
       <c r="M8" t="s" s="15">
+        <v>50</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s" s="18">
         <v>51</v>
-      </c>
-      <c r="N8" s="17">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s" s="18">
-        <v>52</v>
       </c>
       <c r="P8" s="17">
         <v>1</v>
@@ -1968,10 +1965,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s" s="21">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s" s="22">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="20">
         <v>2</v>
@@ -1995,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="s" s="21">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" s="23">
         <v>1</v>
@@ -2017,10 +2014,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s" s="21">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s" s="22">
         <v>54</v>
-      </c>
-      <c r="E10" t="s" s="22">
-        <v>55</v>
       </c>
       <c r="F10" s="20">
         <v>3</v>
@@ -2029,28 +2026,28 @@
         <v>0</v>
       </c>
       <c r="H10" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s" s="21">
         <v>56</v>
       </c>
-      <c r="I10" t="s" s="21">
+      <c r="J10" t="s" s="21">
         <v>57</v>
       </c>
-      <c r="J10" t="s" s="21">
+      <c r="K10" t="s" s="21">
         <v>58</v>
       </c>
-      <c r="K10" t="s" s="21">
-        <v>59</v>
-      </c>
       <c r="L10" t="s" s="21">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s" s="21">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N10" s="23">
         <v>1</v>
       </c>
       <c r="O10" t="s" s="25">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P10" s="23">
         <v>1</v>
@@ -2066,10 +2063,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="s" s="21">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s" s="22">
         <v>61</v>
-      </c>
-      <c r="E11" t="s" s="22">
-        <v>62</v>
       </c>
       <c r="F11" s="20">
         <v>4</v>
@@ -2078,22 +2075,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s" s="21">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s" s="21">
         <v>56</v>
       </c>
-      <c r="I11" t="s" s="21">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s" s="21">
-        <v>57</v>
-      </c>
       <c r="K11" t="s" s="21">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s" s="21">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s" s="21">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N11" s="20">
         <v>1</v>
@@ -2115,10 +2112,10 @@
         <v>100</v>
       </c>
       <c r="D12" t="s" s="21">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s" s="22">
         <v>64</v>
-      </c>
-      <c r="E12" t="s" s="22">
-        <v>65</v>
       </c>
       <c r="F12" s="20">
         <v>100</v>
@@ -2127,22 +2124,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s" s="21">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s" s="21">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s" s="21">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s" s="21">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s" s="21">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s" s="21">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12" s="20">
         <v>1</v>
@@ -2164,10 +2161,10 @@
         <v>10000</v>
       </c>
       <c r="D13" t="s" s="21">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="20">
         <v>5</v>
@@ -2191,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s" s="21">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N13" s="20">
         <v>1</v>

--- a/config/excel/skill.xlsx
+++ b/config/excel/skill.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -163,15 +163,6 @@
   </si>
   <si>
     <t>[]int32</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>默认技能名</t>
-  </si>
-  <si>
-    <t>default_path</t>
   </si>
   <si>
     <t>普通攻击</t>
@@ -415,7 +406,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -453,9 +444,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1621,7 +1609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1868,22 +1856,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row r="7" ht="16" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="4"/>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="14">
         <v>45</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" t="s" s="9">
+      <c r="E7" t="s" s="15">
         <v>46</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
       <c r="G7" s="13">
         <v>0</v>
       </c>
       <c r="H7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="13">
         <v>0</v>
@@ -1895,332 +1887,287 @@
         <v>0</v>
       </c>
       <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="N7" s="16">
         <v>0</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s" s="10">
-        <v>47</v>
+      <c r="O7" t="s" s="17">
+        <v>48</v>
+      </c>
+      <c r="P7" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="14">
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s" s="21">
+        <v>49</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="15">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s" s="16">
-        <v>49</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="M8" t="s" s="20">
+        <v>47</v>
+      </c>
+      <c r="N8" s="22">
         <v>1</v>
       </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="O8" s="22">
+        <v>4</v>
+      </c>
+      <c r="P8" s="22">
         <v>1</v>
       </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
+      <c r="Q8" s="23">
         <v>1</v>
       </c>
-      <c r="M8" t="s" s="15">
-        <v>50</v>
-      </c>
-      <c r="N8" s="17">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s" s="18">
-        <v>51</v>
-      </c>
-      <c r="P8" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" ht="28.5" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s" s="20">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="F9" s="19">
+        <v>3</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s" s="20">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s" s="20">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s" s="20">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s" s="20">
+        <v>47</v>
+      </c>
+      <c r="N9" s="22">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s" s="24">
+        <v>56</v>
+      </c>
+      <c r="P9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="23">
         <v>2</v>
       </c>
-      <c r="D9" t="s" s="21">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s" s="22">
-        <v>52</v>
-      </c>
-      <c r="F9" s="20">
-        <v>2</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>2</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="20">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s" s="21">
-        <v>50</v>
-      </c>
-      <c r="N9" s="23">
-        <v>1</v>
-      </c>
-      <c r="O9" s="23">
-        <v>4</v>
-      </c>
-      <c r="P9" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" ht="28.5" customHeight="1">
+    <row r="10" ht="29" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s" s="21">
+        <v>58</v>
+      </c>
+      <c r="F10" s="19">
+        <v>4</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s" s="20">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s" s="20">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s" s="20">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s" s="20">
+        <v>47</v>
+      </c>
+      <c r="N10" s="19">
+        <v>1</v>
+      </c>
+      <c r="O10" s="22">
+        <v>6</v>
+      </c>
+      <c r="P10" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="23">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="21">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s" s="22">
-        <v>54</v>
-      </c>
-      <c r="F10" s="20">
-        <v>3</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s" s="21">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s" s="21">
-        <v>56</v>
-      </c>
-      <c r="J10" t="s" s="21">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s" s="21">
-        <v>58</v>
-      </c>
-      <c r="L10" t="s" s="21">
-        <v>56</v>
-      </c>
-      <c r="M10" t="s" s="21">
-        <v>50</v>
-      </c>
-      <c r="N10" s="23">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s" s="25">
-        <v>59</v>
-      </c>
-      <c r="P10" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>2</v>
-      </c>
     </row>
-    <row r="11" ht="29" customHeight="1">
+    <row r="11" ht="16" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="20">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="21">
+      <c r="C11" s="19">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s" s="20">
         <v>60</v>
       </c>
-      <c r="E11" t="s" s="22">
+      <c r="E11" t="s" s="21">
         <v>61</v>
       </c>
-      <c r="F11" s="20">
-        <v>4</v>
-      </c>
-      <c r="G11" s="20">
+      <c r="F11" s="19">
+        <v>100</v>
+      </c>
+      <c r="G11" s="19">
         <v>0</v>
       </c>
-      <c r="H11" t="s" s="21">
+      <c r="H11" t="s" s="20">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s" s="20">
         <v>55</v>
       </c>
-      <c r="I11" t="s" s="21">
-        <v>57</v>
-      </c>
-      <c r="J11" t="s" s="21">
-        <v>56</v>
-      </c>
-      <c r="K11" t="s" s="21">
+      <c r="K11" t="s" s="20">
         <v>62</v>
       </c>
-      <c r="L11" t="s" s="21">
-        <v>56</v>
-      </c>
-      <c r="M11" t="s" s="21">
-        <v>50</v>
-      </c>
-      <c r="N11" s="20">
+      <c r="L11" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s" s="20">
+        <v>47</v>
+      </c>
+      <c r="N11" s="19">
         <v>1</v>
       </c>
-      <c r="O11" s="23">
-        <v>6</v>
-      </c>
-      <c r="P11" s="23">
+      <c r="O11" s="22">
+        <v>100</v>
+      </c>
+      <c r="P11" s="22">
         <v>1</v>
       </c>
-      <c r="Q11" s="24">
-        <v>3</v>
+      <c r="Q11" s="23">
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="20">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s" s="21">
+      <c r="C12" s="19">
+        <v>10000</v>
+      </c>
+      <c r="D12" t="s" s="20">
         <v>63</v>
       </c>
-      <c r="E12" t="s" s="22">
-        <v>64</v>
-      </c>
-      <c r="F12" s="20">
-        <v>100</v>
-      </c>
-      <c r="G12" s="20">
+      <c r="E12" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="F12" s="19">
+        <v>5</v>
+      </c>
+      <c r="G12" s="19">
         <v>0</v>
       </c>
-      <c r="H12" t="s" s="21">
-        <v>55</v>
-      </c>
-      <c r="I12" t="s" s="21">
-        <v>65</v>
-      </c>
-      <c r="J12" t="s" s="21">
-        <v>58</v>
-      </c>
-      <c r="K12" t="s" s="21">
-        <v>65</v>
-      </c>
-      <c r="L12" t="s" s="21">
-        <v>65</v>
-      </c>
-      <c r="M12" t="s" s="21">
-        <v>50</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="H12" s="19">
         <v>1</v>
       </c>
-      <c r="O12" s="23">
-        <v>100</v>
-      </c>
-      <c r="P12" s="23">
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
         <v>1</v>
       </c>
-      <c r="Q12" s="24">
-        <v>100</v>
+      <c r="M12" t="s" s="20">
+        <v>47</v>
+      </c>
+      <c r="N12" s="19">
+        <v>1</v>
+      </c>
+      <c r="O12" s="22">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>5</v>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" ht="14" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="20">
-        <v>10000</v>
-      </c>
-      <c r="D13" t="s" s="21">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s" s="22">
-        <v>49</v>
-      </c>
-      <c r="F13" s="20">
-        <v>5</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <v>1</v>
-      </c>
-      <c r="I13" s="20">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0</v>
-      </c>
-      <c r="L13" s="20">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s" s="21">
-        <v>50</v>
-      </c>
-      <c r="N13" s="20">
-        <v>1</v>
-      </c>
-      <c r="O13" s="23">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" ht="14" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="4"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
